--- a/published-data/fonds-solidarite/fds-2022-06-10/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-10/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -13711,13 +13711,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>11828</v>
+        <v>11830</v>
       </c>
       <c r="D261" t="n">
         <v>1965</v>
       </c>
       <c r="E261" t="n">
-        <v>50596194</v>
+        <v>50600286</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -13813,13 +13813,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D263" t="n">
         <v>224</v>
       </c>
       <c r="E263" t="n">
-        <v>11208038</v>
+        <v>11216371</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -14323,13 +14323,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="D273" t="n">
         <v>471</v>
       </c>
       <c r="E273" t="n">
-        <v>4424156</v>
+        <v>4426537</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -15649,13 +15649,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>10180</v>
+        <v>10181</v>
       </c>
       <c r="D299" t="n">
         <v>1865</v>
       </c>
       <c r="E299" t="n">
-        <v>58040983</v>
+        <v>58042971</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163627</v>
+        <v>163632</v>
       </c>
       <c r="D434" t="n">
         <v>25457</v>
       </c>
       <c r="E434" t="n">
-        <v>711563780</v>
+        <v>711586197</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50640</v>
+        <v>50641</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>542644334</v>
+        <v>542647360</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30973</v>
+        <v>30974</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>596236424</v>
+        <v>596254750</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22789,13 +22789,13 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="D439" t="n">
         <v>232</v>
       </c>
       <c r="E439" t="n">
-        <v>135058981</v>
+        <v>135129731</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53193</v>
+        <v>53195</v>
       </c>
       <c r="D446" t="n">
         <v>8887</v>
       </c>
       <c r="E446" t="n">
-        <v>117920123</v>
+        <v>117923303</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -24370,13 +24370,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>6333</v>
+        <v>6337</v>
       </c>
       <c r="D470" t="n">
         <v>1078</v>
       </c>
       <c r="E470" t="n">
-        <v>57695844</v>
+        <v>57752101</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>5386</v>
+        <v>5388</v>
       </c>
       <c r="D491" t="n">
         <v>918</v>
       </c>
       <c r="E491" t="n">
-        <v>44658387</v>
+        <v>44751617</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -31561,13 +31561,13 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>22932</v>
+        <v>22933</v>
       </c>
       <c r="D611" t="n">
         <v>4582</v>
       </c>
       <c r="E611" t="n">
-        <v>79301709</v>
+        <v>79311709</v>
       </c>
       <c r="F611" t="inlineStr">
         <is>
@@ -31612,13 +31612,13 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>48755</v>
+        <v>48756</v>
       </c>
       <c r="D612" t="n">
         <v>10181</v>
       </c>
       <c r="E612" t="n">
-        <v>202418787</v>
+        <v>202428193</v>
       </c>
       <c r="F612" t="inlineStr">
         <is>
@@ -36967,13 +36967,13 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>48821</v>
+        <v>48824</v>
       </c>
       <c r="D717" t="n">
         <v>9168</v>
       </c>
       <c r="E717" t="n">
-        <v>190648168</v>
+        <v>190664872</v>
       </c>
       <c r="F717" t="inlineStr">
         <is>
@@ -42781,13 +42781,13 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D831" t="n">
         <v>9</v>
       </c>
       <c r="E831" t="n">
-        <v>8679436</v>
+        <v>8879436</v>
       </c>
       <c r="F831" t="inlineStr">
         <is>
